--- a/Ecuador/Boletín/Medios/autores_general_ecuador.xlsx
+++ b/Ecuador/Boletín/Medios/autores_general_ecuador.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOSE\Desktop\Trabajo\BX\Ecuador\Boletín\Medios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD67669C-0178-46DD-9D8D-DB23DC076352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B8C6DE-6843-4FE2-A789-BDE5AF5DBE2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5745" yWindow="3075" windowWidth="16245" windowHeight="9405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
+  <si>
+    <t>ecuabot</t>
+  </si>
+  <si>
+    <t>paoleague</t>
+  </si>
+  <si>
+    <t>ecupuntocom</t>
+  </si>
+  <si>
+    <t>gkecuador</t>
+  </si>
+  <si>
+    <t>moviliderec</t>
+  </si>
   <si>
     <t>diarioextraec</t>
   </si>
@@ -28,49 +43,430 @@
     <t>acnurecuador</t>
   </si>
   <si>
+    <t>eluniversocom</t>
+  </si>
+  <si>
     <t>expresoec</t>
   </si>
   <si>
-    <t>gkecuador</t>
+    <t>revistavistazo</t>
+  </si>
+  <si>
+    <t>teleamazonasec</t>
+  </si>
+  <si>
+    <t>larepublica_ec</t>
+  </si>
+  <si>
+    <t>primicias</t>
+  </si>
+  <si>
+    <t>dialoguemosinfo</t>
+  </si>
+  <si>
+    <t>diariocorreoec</t>
+  </si>
+  <si>
+    <t>complicefm</t>
+  </si>
+  <si>
+    <t>ecuadorprensaec</t>
+  </si>
+  <si>
+    <t>quenoticiasec</t>
+  </si>
+  <si>
+    <t>notimundoec</t>
+  </si>
+  <si>
+    <t>radio_sucre700</t>
+  </si>
+  <si>
+    <t>ecuadorenvivo</t>
+  </si>
+  <si>
+    <t>ecuavisainforma</t>
+  </si>
+  <si>
+    <t>kch_fm</t>
+  </si>
+  <si>
+    <t>radio_pichincha</t>
+  </si>
+  <si>
+    <t>albo75</t>
+  </si>
+  <si>
+    <t>iamdanielypunto</t>
+  </si>
+  <si>
+    <t>3monosapios</t>
+  </si>
+  <si>
+    <t>mundodeporec</t>
+  </si>
+  <si>
+    <t>lamareaec</t>
+  </si>
+  <si>
+    <t>playfmdeportes</t>
+  </si>
+  <si>
+    <t>debatebsc</t>
+  </si>
+  <si>
+    <t>manavisionec</t>
+  </si>
+  <si>
+    <t>wqradio_ec</t>
+  </si>
+  <si>
+    <t>elcomerciocom</t>
+  </si>
+  <si>
+    <t>ecendirecto</t>
+  </si>
+  <si>
+    <t>elmercurioec</t>
   </si>
   <si>
     <t>pichinchauniver</t>
   </si>
   <si>
-    <t>teleamazonasec</t>
+    <t>portalxvcom</t>
+  </si>
+  <si>
+    <t>rtsecuador</t>
+  </si>
+  <si>
+    <t>tomebamba</t>
+  </si>
+  <si>
+    <t>tvcelcomerciotv</t>
   </si>
   <si>
     <t>ccpidg</t>
   </si>
   <si>
-    <t>rtsecuador</t>
-  </si>
-  <si>
-    <t>elcomerciocom</t>
+    <t>diariocentroec</t>
+  </si>
+  <si>
+    <t>directfutbolec</t>
+  </si>
+  <si>
+    <t>revista_gestion</t>
+  </si>
+  <si>
+    <t>riobambabot</t>
+  </si>
+  <si>
+    <t>elmercuriomanta</t>
+  </si>
+  <si>
+    <t>esmeraldasnews</t>
   </si>
   <si>
     <t>onuecuador</t>
   </si>
   <si>
+    <t>primeraplanaecu</t>
+  </si>
+  <si>
+    <t>udlachannelec</t>
+  </si>
+  <si>
+    <t>lahoraecuador</t>
+  </si>
+  <si>
+    <t>radioactiva_ec</t>
+  </si>
+  <si>
+    <t>unionradio580am</t>
+  </si>
+  <si>
+    <t>el_telegrafo</t>
+  </si>
+  <si>
+    <t>machalamovil</t>
+  </si>
+  <si>
+    <t>radiomorena640</t>
+  </si>
+  <si>
+    <t>wradioec</t>
+  </si>
+  <si>
+    <t>ecuadorwillana</t>
+  </si>
+  <si>
+    <t>itsabela</t>
+  </si>
+  <si>
+    <t>lahistoriaec</t>
+  </si>
+  <si>
+    <t>marcadorec</t>
+  </si>
+  <si>
+    <t>onumujeresecu</t>
+  </si>
+  <si>
+    <t>radiolacalle</t>
+  </si>
+  <si>
+    <t>rts_lanoticia</t>
+  </si>
+  <si>
+    <t>cronicacuenca</t>
+  </si>
+  <si>
+    <t>ecuadortv</t>
+  </si>
+  <si>
+    <t>machalanoticias</t>
+  </si>
+  <si>
+    <t>manabi_noticias</t>
+  </si>
+  <si>
+    <t>metroecuador</t>
+  </si>
+  <si>
+    <t>politikcorrecta</t>
+  </si>
+  <si>
+    <t>radioplayinter</t>
+  </si>
+  <si>
+    <t>saladeprensaec</t>
+  </si>
+  <si>
+    <t>teleramaec</t>
+  </si>
+  <si>
+    <t>ucsg_tv</t>
+  </si>
+  <si>
+    <t>wambraec</t>
+  </si>
+  <si>
+    <t>aldiacomec</t>
+  </si>
+  <si>
+    <t>caravana750</t>
+  </si>
+  <si>
+    <t>ccpd_duran</t>
+  </si>
+  <si>
+    <t>ciespal</t>
+  </si>
+  <si>
+    <t>confirmadonet</t>
+  </si>
+  <si>
+    <t>deportespu</t>
+  </si>
+  <si>
+    <t>dialogodeport</t>
+  </si>
+  <si>
+    <t>ecuadoraldia365</t>
+  </si>
+  <si>
+    <t>ecuafootball</t>
+  </si>
+  <si>
+    <t>gamavisionecu</t>
+  </si>
+  <si>
+    <t>goberazuay</t>
+  </si>
+  <si>
+    <t>golecuador</t>
+  </si>
+  <si>
+    <t>idolopasionweb</t>
+  </si>
+  <si>
+    <t>laposta_ecu</t>
+  </si>
+  <si>
+    <t>pactoglobalecua</t>
+  </si>
+  <si>
+    <t>revistahogar</t>
+  </si>
+  <si>
+    <t>teradeportes</t>
+  </si>
+  <si>
+    <t>tiemporealec</t>
+  </si>
+  <si>
+    <t>antenaunofm</t>
+  </si>
+  <si>
+    <t>cn_igualdad</t>
+  </si>
+  <si>
+    <t>diariopinion</t>
+  </si>
+  <si>
+    <t>ecuainm_oficial</t>
+  </si>
+  <si>
+    <t>horatungurahua</t>
+  </si>
+  <si>
+    <t>laprensainforma</t>
+  </si>
+  <si>
+    <t>losilustreslp</t>
+  </si>
+  <si>
+    <t>prefecturaloja</t>
+  </si>
+  <si>
+    <t>prensadelbanano</t>
+  </si>
+  <si>
+    <t>quitosinmineria</t>
+  </si>
+  <si>
+    <t>radioambato1</t>
+  </si>
+  <si>
+    <t>radiopuntorojo</t>
+  </si>
+  <si>
+    <t>radioquitoec</t>
+  </si>
+  <si>
+    <t>radioromancefm</t>
+  </si>
+  <si>
+    <t>radiosucesosec</t>
+  </si>
+  <si>
+    <t>reportecuador</t>
+  </si>
+  <si>
+    <t>tctelevision</t>
+  </si>
+  <si>
+    <t>unpguayas_</t>
+  </si>
+  <si>
+    <t>680radioatalaya</t>
+  </si>
+  <si>
+    <t>asoguayas</t>
+  </si>
+  <si>
     <t>canalrtu</t>
   </si>
   <si>
-    <t>dialoguemosinfo</t>
+    <t>ciudadanoazul</t>
+  </si>
+  <si>
+    <t>conexnoticiasec</t>
+  </si>
+  <si>
+    <t>elnorteadiario</t>
+  </si>
+  <si>
+    <t>fmradiofuego</t>
+  </si>
+  <si>
+    <t>forbesecuador</t>
   </si>
   <si>
     <t>gadmpedernales</t>
   </si>
   <si>
-    <t>goberazuay</t>
-  </si>
-  <si>
-    <t>kch_fm</t>
-  </si>
-  <si>
-    <t>lahoraecuador</t>
-  </si>
-  <si>
-    <t>metroecuador</t>
+    <t>indymedia_ec</t>
+  </si>
+  <si>
+    <t>lodelmomentoloj</t>
+  </si>
+  <si>
+    <t>radiogitanaec</t>
+  </si>
+  <si>
+    <t>sincadenasecu</t>
+  </si>
+  <si>
+    <t>somosyachaytech</t>
+  </si>
+  <si>
+    <t>teleradioec</t>
+  </si>
+  <si>
+    <t>zaracaytv</t>
+  </si>
+  <si>
+    <t>balompiecuador</t>
+  </si>
+  <si>
+    <t>centrodeprensa</t>
+  </si>
+  <si>
+    <t>cnimhec</t>
+  </si>
+  <si>
+    <t>desdemivision</t>
+  </si>
+  <si>
+    <t>diario_super</t>
+  </si>
+  <si>
+    <t>ecuadorchequea</t>
+  </si>
+  <si>
+    <t>elnotista_ec</t>
+  </si>
+  <si>
+    <t>guerrerosdig_rc</t>
+  </si>
+  <si>
+    <t>informados_ec</t>
+  </si>
+  <si>
+    <t>lakolmenaec</t>
+  </si>
+  <si>
+    <t>macaespais</t>
+  </si>
+  <si>
+    <t>modelo977</t>
+  </si>
+  <si>
+    <t>news_ecuador</t>
+  </si>
+  <si>
+    <t>pinvestigacion3</t>
+  </si>
+  <si>
+    <t>publicafm</t>
+  </si>
+  <si>
+    <t>radiodistritofm</t>
+  </si>
+  <si>
+    <t>radiohcjb</t>
+  </si>
+  <si>
+    <t>rc_guayas</t>
+  </si>
+  <si>
+    <t>revistamariela</t>
+  </si>
+  <si>
+    <t>ronaldvinces5</t>
+  </si>
+  <si>
+    <t>segmentofutbol</t>
   </si>
   <si>
     <t>Author</t>
@@ -452,20 +848,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -473,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>412</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -481,7 +877,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -489,7 +885,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -497,7 +893,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -505,7 +901,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -513,7 +909,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -521,7 +917,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -529,7 +925,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -537,7 +933,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -545,7 +941,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -553,7 +949,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -561,7 +957,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -569,7 +965,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -577,7 +973,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -585,7 +981,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -593,7 +989,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -601,6 +997,1062 @@
         <v>16</v>
       </c>
       <c r="B18">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>148</v>
+      </c>
+      <c r="B150">
         <v>1</v>
       </c>
     </row>

--- a/Ecuador/Boletín/Medios/autores_general_ecuador.xlsx
+++ b/Ecuador/Boletín/Medios/autores_general_ecuador.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOSE\Desktop\Trabajo\BX\Ecuador\Boletín\Medios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B8C6DE-6843-4FE2-A789-BDE5AF5DBE2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C3F507-7492-4E69-AF97-F895ECD06A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5175" yWindow="2610" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
   <si>
     <t>ecuabot</t>
   </si>
@@ -40,9 +40,6 @@
     <t>diarioextraec</t>
   </si>
   <si>
-    <t>acnurecuador</t>
-  </si>
-  <si>
     <t>eluniversocom</t>
   </si>
   <si>
@@ -67,30 +64,27 @@
     <t>diariocorreoec</t>
   </si>
   <si>
+    <t>quenoticiasec</t>
+  </si>
+  <si>
     <t>complicefm</t>
   </si>
   <si>
     <t>ecuadorprensaec</t>
   </si>
   <si>
-    <t>quenoticiasec</t>
+    <t>radio_sucre700</t>
   </si>
   <si>
     <t>notimundoec</t>
   </si>
   <si>
-    <t>radio_sucre700</t>
-  </si>
-  <si>
     <t>ecuadorenvivo</t>
   </si>
   <si>
     <t>ecuavisainforma</t>
   </si>
   <si>
-    <t>kch_fm</t>
-  </si>
-  <si>
     <t>radio_pichincha</t>
   </si>
   <si>
@@ -124,13 +118,13 @@
     <t>elcomerciocom</t>
   </si>
   <si>
+    <t>elmercurioec</t>
+  </si>
+  <si>
     <t>ecendirecto</t>
   </si>
   <si>
-    <t>elmercurioec</t>
-  </si>
-  <si>
-    <t>pichinchauniver</t>
+    <t>tomebamba</t>
   </si>
   <si>
     <t>portalxvcom</t>
@@ -139,18 +133,9 @@
     <t>rtsecuador</t>
   </si>
   <si>
-    <t>tomebamba</t>
-  </si>
-  <si>
     <t>tvcelcomerciotv</t>
   </si>
   <si>
-    <t>ccpidg</t>
-  </si>
-  <si>
-    <t>diariocentroec</t>
-  </si>
-  <si>
     <t>directfutbolec</t>
   </si>
   <si>
@@ -166,18 +151,12 @@
     <t>esmeraldasnews</t>
   </si>
   <si>
-    <t>onuecuador</t>
-  </si>
-  <si>
     <t>primeraplanaecu</t>
   </si>
   <si>
     <t>udlachannelec</t>
   </si>
   <si>
-    <t>lahoraecuador</t>
-  </si>
-  <si>
     <t>radioactiva_ec</t>
   </si>
   <si>
@@ -256,18 +235,12 @@
     <t>caravana750</t>
   </si>
   <si>
-    <t>ccpd_duran</t>
-  </si>
-  <si>
     <t>ciespal</t>
   </si>
   <si>
     <t>confirmadonet</t>
   </si>
   <si>
-    <t>deportespu</t>
-  </si>
-  <si>
     <t>dialogodeport</t>
   </si>
   <si>
@@ -280,9 +253,6 @@
     <t>gamavisionecu</t>
   </si>
   <si>
-    <t>goberazuay</t>
-  </si>
-  <si>
     <t>golecuador</t>
   </si>
   <si>
@@ -298,18 +268,12 @@
     <t>revistahogar</t>
   </si>
   <si>
-    <t>teradeportes</t>
-  </si>
-  <si>
     <t>tiemporealec</t>
   </si>
   <si>
     <t>antenaunofm</t>
   </si>
   <si>
-    <t>cn_igualdad</t>
-  </si>
-  <si>
     <t>diariopinion</t>
   </si>
   <si>
@@ -355,18 +319,12 @@
     <t>tctelevision</t>
   </si>
   <si>
-    <t>unpguayas_</t>
-  </si>
-  <si>
     <t>680radioatalaya</t>
   </si>
   <si>
     <t>asoguayas</t>
   </si>
   <si>
-    <t>canalrtu</t>
-  </si>
-  <si>
     <t>ciudadanoazul</t>
   </si>
   <si>
@@ -382,9 +340,6 @@
     <t>forbesecuador</t>
   </si>
   <si>
-    <t>gadmpedernales</t>
-  </si>
-  <si>
     <t>indymedia_ec</t>
   </si>
   <si>
@@ -412,9 +367,6 @@
     <t>centrodeprensa</t>
   </si>
   <si>
-    <t>cnimhec</t>
-  </si>
-  <si>
     <t>desdemivision</t>
   </si>
   <si>
@@ -424,9 +376,6 @@
     <t>ecuadorchequea</t>
   </si>
   <si>
-    <t>elnotista_ec</t>
-  </si>
-  <si>
     <t>guerrerosdig_rc</t>
   </si>
   <si>
@@ -452,12 +401,6 @@
   </si>
   <si>
     <t>radiodistritofm</t>
-  </si>
-  <si>
-    <t>radiohcjb</t>
-  </si>
-  <si>
-    <t>rc_guayas</t>
   </si>
   <si>
     <t>revistamariela</t>
@@ -848,20 +791,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B150"/>
+  <dimension ref="A1:B131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="B1" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -877,7 +820,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -885,7 +828,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -893,7 +836,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -909,7 +852,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -925,7 +868,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>59</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -933,7 +876,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -941,7 +884,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -949,7 +892,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -965,7 +908,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -973,7 +916,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1021,7 +964,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1029,7 +972,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1037,7 +980,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1045,7 +988,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1053,7 +996,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1061,7 +1004,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1069,7 +1012,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1077,7 +1020,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1085,7 +1028,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1093,7 +1036,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1101,7 +1044,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1117,7 +1060,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -1125,7 +1068,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1133,7 +1076,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1149,7 +1092,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1173,7 +1116,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1181,7 +1124,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1189,7 +1132,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1197,7 +1140,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -1205,7 +1148,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1213,7 +1156,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1221,7 +1164,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1229,7 +1172,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -1237,7 +1180,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1245,7 +1188,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1253,7 +1196,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -1261,7 +1204,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -1269,7 +1212,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -1277,7 +1220,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1285,7 +1228,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -1293,7 +1236,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -1301,7 +1244,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -1309,7 +1252,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -1317,7 +1260,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -1325,7 +1268,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -1333,7 +1276,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -1341,7 +1284,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -1349,7 +1292,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -1357,7 +1300,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -1365,7 +1308,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1373,7 +1316,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -1381,7 +1324,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -1421,7 +1364,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -1429,7 +1372,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -1437,7 +1380,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -1445,7 +1388,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -1453,7 +1396,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -1461,7 +1404,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -1469,7 +1412,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -1533,7 +1476,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -1541,7 +1484,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -1549,7 +1492,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -1557,7 +1500,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -1565,7 +1508,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -1573,7 +1516,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -1581,7 +1524,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -1589,7 +1532,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -1597,7 +1540,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -1605,7 +1548,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -1613,7 +1556,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -1661,7 +1604,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -1669,7 +1612,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -1677,7 +1620,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -1685,7 +1628,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -1693,7 +1636,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -1701,7 +1644,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -1709,7 +1652,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -1717,7 +1660,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -1725,7 +1668,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -1733,7 +1676,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -1741,7 +1684,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -1749,7 +1692,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -1757,7 +1700,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -1773,7 +1716,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -1781,7 +1724,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -1789,7 +1732,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -1797,7 +1740,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -1805,7 +1748,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -1813,7 +1756,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -1821,7 +1764,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -1829,7 +1772,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -1837,7 +1780,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -1845,7 +1788,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -1853,7 +1796,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -1861,7 +1804,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -1869,7 +1812,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -1877,7 +1820,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -1885,7 +1828,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -1901,158 +1844,6 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>130</v>
-      </c>
-      <c r="B132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>131</v>
-      </c>
-      <c r="B133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>132</v>
-      </c>
-      <c r="B134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>133</v>
-      </c>
-      <c r="B135">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>134</v>
-      </c>
-      <c r="B136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>135</v>
-      </c>
-      <c r="B137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>136</v>
-      </c>
-      <c r="B138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>137</v>
-      </c>
-      <c r="B139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>138</v>
-      </c>
-      <c r="B140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>139</v>
-      </c>
-      <c r="B141">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>140</v>
-      </c>
-      <c r="B142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>141</v>
-      </c>
-      <c r="B143">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>142</v>
-      </c>
-      <c r="B144">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>143</v>
-      </c>
-      <c r="B145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>144</v>
-      </c>
-      <c r="B146">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>145</v>
-      </c>
-      <c r="B147">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>146</v>
-      </c>
-      <c r="B148">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>147</v>
-      </c>
-      <c r="B149">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>148</v>
-      </c>
-      <c r="B150">
         <v>1</v>
       </c>
     </row>
